--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H2">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>15.933008</v>
+        <v>0.03998533333333333</v>
       </c>
       <c r="N2">
-        <v>47.799024</v>
+        <v>0.119956</v>
       </c>
       <c r="O2">
-        <v>0.7524552897049799</v>
+        <v>0.001814551768531471</v>
       </c>
       <c r="P2">
-        <v>0.7524552897049799</v>
+        <v>0.00181455176853147</v>
       </c>
       <c r="Q2">
-        <v>4.792553208352</v>
+        <v>0.01564499473111111</v>
       </c>
       <c r="R2">
-        <v>43.132978875168</v>
+        <v>0.14080495258</v>
       </c>
       <c r="S2">
-        <v>0.002886921045235978</v>
+        <v>8.934342955662109E-06</v>
       </c>
       <c r="T2">
-        <v>0.002886921045235978</v>
+        <v>8.934342955662107E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H3">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I3">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J3">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.241682666666667</v>
+        <v>15.933008</v>
       </c>
       <c r="N3">
-        <v>15.725048</v>
+        <v>47.799024</v>
       </c>
       <c r="O3">
-        <v>0.2475447102950201</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="P3">
-        <v>0.2475447102950201</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="Q3">
-        <v>1.576666696037333</v>
+        <v>6.234081485146667</v>
       </c>
       <c r="R3">
-        <v>14.190000264336</v>
+        <v>56.10673336632</v>
       </c>
       <c r="S3">
-        <v>0.0009497468401979489</v>
+        <v>0.003560079307095302</v>
       </c>
       <c r="T3">
-        <v>0.000949746840197949</v>
+        <v>0.003560079307095302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.268658666666667</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H4">
-        <v>18.805976</v>
+        <v>1.173805</v>
       </c>
       <c r="I4">
-        <v>0.07995758356598556</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J4">
-        <v>0.07995758356598556</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.933008</v>
+        <v>6.062935333333333</v>
       </c>
       <c r="N4">
-        <v>47.799024</v>
+        <v>18.188806</v>
       </c>
       <c r="O4">
-        <v>0.7524552897049799</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="P4">
-        <v>0.7524552897049799</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="Q4">
-        <v>99.87858868526935</v>
+        <v>2.372234602981111</v>
       </c>
       <c r="R4">
-        <v>898.9072981674241</v>
+        <v>21.35011142683</v>
       </c>
       <c r="S4">
-        <v>0.0601645067062538</v>
+        <v>0.001354705314932181</v>
       </c>
       <c r="T4">
-        <v>0.0601645067062538</v>
+        <v>0.001354705314932181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>18.805976</v>
       </c>
       <c r="I5">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J5">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.241682666666667</v>
+        <v>0.03998533333333333</v>
       </c>
       <c r="N5">
-        <v>15.725048</v>
+        <v>0.119956</v>
       </c>
       <c r="O5">
-        <v>0.2475447102950201</v>
+        <v>0.001814551768531471</v>
       </c>
       <c r="P5">
-        <v>0.2475447102950201</v>
+        <v>0.00181455176853147</v>
       </c>
       <c r="Q5">
-        <v>32.85831947631645</v>
+        <v>0.2506544063395555</v>
       </c>
       <c r="R5">
-        <v>295.724875286848</v>
+        <v>2.255889657056</v>
       </c>
       <c r="S5">
-        <v>0.01979307685973176</v>
+        <v>0.0001431405039167074</v>
       </c>
       <c r="T5">
-        <v>0.01979307685973176</v>
+        <v>0.0001431405039167073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.78493233333334</v>
+        <v>6.268658666666667</v>
       </c>
       <c r="H6">
-        <v>215.354797</v>
+        <v>18.805976</v>
       </c>
       <c r="I6">
-        <v>0.9156264571146617</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J6">
-        <v>0.9156264571146617</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,27 +809,27 @@
         <v>47.799024</v>
       </c>
       <c r="O6">
-        <v>0.7524552897049799</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="P6">
-        <v>0.7524552897049799</v>
+        <v>0.7230468132755195</v>
       </c>
       <c r="Q6">
-        <v>1143.749901146459</v>
+        <v>99.87858868526935</v>
       </c>
       <c r="R6">
-        <v>10293.74911031813</v>
+        <v>898.9072981674241</v>
       </c>
       <c r="S6">
-        <v>0.6889679710497572</v>
+        <v>0.05703738355802786</v>
       </c>
       <c r="T6">
-        <v>0.6889679710497572</v>
+        <v>0.05703738355802786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.78493233333334</v>
+        <v>6.268658666666667</v>
       </c>
       <c r="H7">
-        <v>215.354797</v>
+        <v>18.805976</v>
       </c>
       <c r="I7">
-        <v>0.9156264571146617</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J7">
-        <v>0.9156264571146617</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.241682666666667</v>
+        <v>6.062935333333333</v>
       </c>
       <c r="N7">
-        <v>15.725048</v>
+        <v>18.188806</v>
       </c>
       <c r="O7">
-        <v>0.2475447102950201</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="P7">
-        <v>0.2475447102950201</v>
+        <v>0.275138634955949</v>
       </c>
       <c r="Q7">
-        <v>376.2738355394729</v>
+        <v>38.00647212273955</v>
       </c>
       <c r="R7">
-        <v>3386.464519855257</v>
+        <v>342.058249104656</v>
       </c>
       <c r="S7">
-        <v>0.2266584860649046</v>
+        <v>0.02170424869521517</v>
       </c>
       <c r="T7">
-        <v>0.2266584860649046</v>
+        <v>0.02170424869521517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>72.68848166666666</v>
+      </c>
+      <c r="H8">
+        <v>218.065445</v>
+      </c>
+      <c r="I8">
+        <v>0.9147115297293749</v>
+      </c>
+      <c r="J8">
+        <v>0.9147115297293749</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.04541633333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.136249</v>
-      </c>
-      <c r="I8">
-        <v>0.0005792914339187696</v>
-      </c>
-      <c r="J8">
-        <v>0.0005792914339187696</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>15.933008</v>
+        <v>0.03998533333333333</v>
       </c>
       <c r="N8">
-        <v>47.799024</v>
+        <v>0.119956</v>
       </c>
       <c r="O8">
-        <v>0.7524552897049799</v>
+        <v>0.001814551768531471</v>
       </c>
       <c r="P8">
-        <v>0.7524552897049799</v>
+        <v>0.00181455176853147</v>
       </c>
       <c r="Q8">
-        <v>0.7236188023306668</v>
+        <v>2.906473168935555</v>
       </c>
       <c r="R8">
-        <v>6.512569220976001</v>
+        <v>26.15825852042</v>
       </c>
       <c r="S8">
-        <v>0.000435890903732961</v>
+        <v>0.001659791423966564</v>
       </c>
       <c r="T8">
-        <v>0.000435890903732961</v>
+        <v>0.001659791423966564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>72.68848166666666</v>
+      </c>
+      <c r="H9">
+        <v>218.065445</v>
+      </c>
+      <c r="I9">
+        <v>0.9147115297293749</v>
+      </c>
+      <c r="J9">
+        <v>0.9147115297293749</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.933008</v>
+      </c>
+      <c r="N9">
+        <v>47.799024</v>
+      </c>
+      <c r="O9">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="P9">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="Q9">
+        <v>1158.146159902853</v>
+      </c>
+      <c r="R9">
+        <v>10423.31543912568</v>
+      </c>
+      <c r="S9">
+        <v>0.6613792566372001</v>
+      </c>
+      <c r="T9">
+        <v>0.6613792566372001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>72.68848166666666</v>
+      </c>
+      <c r="H10">
+        <v>218.065445</v>
+      </c>
+      <c r="I10">
+        <v>0.9147115297293749</v>
+      </c>
+      <c r="J10">
+        <v>0.9147115297293749</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.062935333333333</v>
+      </c>
+      <c r="N10">
+        <v>18.188806</v>
+      </c>
+      <c r="O10">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="P10">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="Q10">
+        <v>440.7055638231855</v>
+      </c>
+      <c r="R10">
+        <v>3966.35007440867</v>
+      </c>
+      <c r="S10">
+        <v>0.2516724816682082</v>
+      </c>
+      <c r="T10">
+        <v>0.2516724816682082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.117608</v>
+      </c>
+      <c r="H11">
+        <v>0.352824</v>
+      </c>
+      <c r="I11">
+        <v>0.001479978548482255</v>
+      </c>
+      <c r="J11">
+        <v>0.001479978548482255</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.04541633333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.136249</v>
-      </c>
-      <c r="I9">
-        <v>0.0005792914339187696</v>
-      </c>
-      <c r="J9">
-        <v>0.0005792914339187696</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.241682666666667</v>
-      </c>
-      <c r="N9">
-        <v>15.725048</v>
-      </c>
-      <c r="O9">
-        <v>0.2475447102950201</v>
-      </c>
-      <c r="P9">
-        <v>0.2475447102950201</v>
-      </c>
-      <c r="Q9">
-        <v>0.2380580072168889</v>
-      </c>
-      <c r="R9">
-        <v>2.142522064952</v>
-      </c>
-      <c r="S9">
-        <v>0.0001434005301858086</v>
-      </c>
-      <c r="T9">
-        <v>0.0001434005301858086</v>
+      <c r="M11">
+        <v>0.03998533333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.119956</v>
+      </c>
+      <c r="O11">
+        <v>0.001814551768531471</v>
+      </c>
+      <c r="P11">
+        <v>0.00181455176853147</v>
+      </c>
+      <c r="Q11">
+        <v>0.004702595082666666</v>
+      </c>
+      <c r="R11">
+        <v>0.042323355744</v>
+      </c>
+      <c r="S11">
+        <v>2.685497692537115E-06</v>
+      </c>
+      <c r="T11">
+        <v>2.685497692537114E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.117608</v>
+      </c>
+      <c r="H12">
+        <v>0.352824</v>
+      </c>
+      <c r="I12">
+        <v>0.001479978548482255</v>
+      </c>
+      <c r="J12">
+        <v>0.001479978548482255</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.933008</v>
+      </c>
+      <c r="N12">
+        <v>47.799024</v>
+      </c>
+      <c r="O12">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="P12">
+        <v>0.7230468132755195</v>
+      </c>
+      <c r="Q12">
+        <v>1.873849204864</v>
+      </c>
+      <c r="R12">
+        <v>16.864642843776</v>
+      </c>
+      <c r="S12">
+        <v>0.001070093773196223</v>
+      </c>
+      <c r="T12">
+        <v>0.001070093773196223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.117608</v>
+      </c>
+      <c r="H13">
+        <v>0.352824</v>
+      </c>
+      <c r="I13">
+        <v>0.001479978548482255</v>
+      </c>
+      <c r="J13">
+        <v>0.001479978548482255</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.062935333333333</v>
+      </c>
+      <c r="N13">
+        <v>18.188806</v>
+      </c>
+      <c r="O13">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="P13">
+        <v>0.275138634955949</v>
+      </c>
+      <c r="Q13">
+        <v>0.7130496986826667</v>
+      </c>
+      <c r="R13">
+        <v>6.417447288144</v>
+      </c>
+      <c r="S13">
+        <v>0.0004071992775934944</v>
+      </c>
+      <c r="T13">
+        <v>0.0004071992775934944</v>
       </c>
     </row>
   </sheetData>
